--- a/Indonesia_news.xlsx
+++ b/Indonesia_news.xlsx
@@ -5,17 +5,82 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/adb3a093afc00203/Documents/GitHub/FinalProjectMacroResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44FBB84-EA27-40A6-93A7-AEEEF7756881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{C44FBB84-EA27-40A6-93A7-AEEEF7756881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABB7D510-0899-4FB4-A7D1-C5755D7B48BF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indonesia" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" hidden="1">2</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceConfidenceLevel" hidden="1">0.95</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePercentileToTest" hidden="1">0.9</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformMeanTest" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformPercentileTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestAllOutputs" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestingPeriod" hidden="1">100</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTolerance" hidden="1">0.03</definedName>
+    <definedName name="_AtRisk_SimSetting_CorrelationEnabledState" hidden="1">1</definedName>
+    <definedName name="_AtRisk_SimSetting_GoalSeekTargetValue" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdate" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_MacroMode" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_MacroRecalculationBehavior" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_MaxAutoIterations" hidden="1">50000</definedName>
+    <definedName name="_AtRisk_SimSetting_MultipleCPUCount" hidden="1">-1</definedName>
+    <definedName name="_AtRisk_SimSetting_MultipleCPUMode" hidden="1">2</definedName>
+    <definedName name="_AtRisk_SimSetting_MultipleCPUModeV8" hidden="1">2</definedName>
+    <definedName name="_AtRisk_SimSetting_RandomNumberGenerator" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ShowSimulationProgressWindow" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_SimNameCount" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SmartSensitivityAnalysisEnabled" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_StatisticFunctionUpdating" hidden="1">1</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcActiveSimulationNumber" hidden="1">1</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">1</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
+    <definedName name="RiskAfterRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskAfterSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskCollectDistributionSamples" hidden="1">2</definedName>
+    <definedName name="RiskFixedSeed" hidden="1">1</definedName>
+    <definedName name="RiskHasSettings" hidden="1">8</definedName>
+    <definedName name="RiskMinimizeOnStart" hidden="1">FALSE</definedName>
+    <definedName name="RiskMonitorConvergence" hidden="1">FALSE</definedName>
+    <definedName name="RiskMultipleCPUSupportEnabled" hidden="1">FALSE</definedName>
+    <definedName name="RiskNumIterations" hidden="1">1000</definedName>
+    <definedName name="RiskNumSimulations" hidden="1">1</definedName>
+    <definedName name="RiskPauseOnError" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskSamplingType" hidden="1">3</definedName>
+    <definedName name="RiskStandardRecalc" hidden="1">2</definedName>
+    <definedName name="RiskUpdateDisplay" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">TRUE</definedName>
+    <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
